--- a/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010694</t>
-  </si>
-  <si>
-    <t>008061</t>
-  </si>
-  <si>
-    <t>008062</t>
-  </si>
-  <si>
-    <t>万家内需增长一年持有期混合</t>
-  </si>
-  <si>
-    <t>惠升惠新灵活配置混合A</t>
-  </si>
-  <si>
-    <t>惠升惠新灵活配置混合C</t>
-  </si>
-  <si>
-    <t>24.87</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>81.84</t>
-  </si>
-  <si>
-    <t>74.36</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>0.5521</t>
-  </si>
-  <si>
-    <t>0.0360</t>
-  </si>
-  <si>
-    <t>0.0101</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.8</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,1257 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6972</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6628</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4972</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2215,7 +2216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2226,17 +2227,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2267,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.04</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2262,14 +2305,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.8</v>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7774</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2278,13 +2343,1313 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4743</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010694</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家内需增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5521</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.52</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>74.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+      <c r="D4" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>180031</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华中小盘精选混合</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.83</t>
+          <t>25.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6129</t>
+          <t>1.2867</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -713,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.85</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4268</t>
+          <t>0.7774</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -751,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>007343</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>嘉实科技创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>16.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4065</t>
+          <t>0.5971</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -789,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>86.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1628</t>
+          <t>0.5289</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -827,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004784</t>
+          <t>002669</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商稳健优选股票</t>
+          <t>华商万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>82.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1351</t>
+          <t>0.4743</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -865,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003456</t>
+          <t>160727</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银新目标灵活配置混合</t>
+          <t>嘉实创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>61.97</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0431</t>
+          <t>0.4182</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -903,35 +833,1061 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>009715</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>89.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.4159</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2216,7 +3172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2267,32 +3223,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>180031</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>银华中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.48</t>
+          <t>43.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2867</t>
+          <t>1.6129</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2305,36 +3261,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>83.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7774</t>
+          <t>0.4268</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2343,36 +3299,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007343</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实科技创新混合</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5971</t>
+          <t>0.4065</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2381,36 +3337,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5289</t>
+          <t>0.1628</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2419,36 +3375,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002669</t>
+          <t>004784</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商万众创新灵活配置混合</t>
+          <t>招商稳健优选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.20</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4743</t>
+          <t>0.1351</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2457,36 +3413,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160727</t>
+          <t>003456</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实创业板两年定期开放混合</t>
+          <t>信达澳银新目标灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>61.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4182</t>
+          <t>0.0431</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2495,1061 +3451,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4159</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001150</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>融通互联网传媒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3116</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004423</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2691</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012491</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商核心引力混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.88</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1951</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519606</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰金鑫股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1715</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002256</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>金信行业优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1300</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1174</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1154</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006281</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家人工智能混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007685</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商电子行业量化股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>013067</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富安达中小盘六个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0793</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>012200</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0790</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>015495</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>景顺中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>015496</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>景顺中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0557</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003053</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实文体娱乐股票A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011369</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华商均衡成长混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>83.60</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>012201</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0276</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006692</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金信消费升级股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011370</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华商均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>83.60</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>012492</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华商核心引力混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>85.88</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011377</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>创金合信积极成长股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001760</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>嘉实创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003054</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>嘉实文体娱乐股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006693</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>金信消费升级股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>011378</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>创金合信积极成长股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>014162</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>万家人工智能混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006857</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>蜂巢卓睿灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>80.87</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006858</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>蜂巢卓睿灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>80.87</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3564,96 +3494,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.52</v>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.04</v>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="D2" t="n">
-        <v>6.52</v>
+        <v>37.43</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>6.04</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>2.8</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -549,6 +566,5108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3767</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新未来混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3571</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1842</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1609</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9334</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8910</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7895</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7818</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7465</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7419</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6789</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6655</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5599</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5401</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5375</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5303</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>016029</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>016030</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1896,7 +7015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3166,7 +8285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3488,7 +8607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300666-江丰电子.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>37.43</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="D3" t="n">
-        <v>6.52</v>
+        <v>37.43</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>6.04</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>2.8</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -566,6 +583,2302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8885</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4816</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3984</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011989</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011991</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011992</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009133</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011990</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009134</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5667,7 +7980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7015,7 +9328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8285,7 +10598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8607,7 +10920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
